--- a/九宫格游戏界面设计及操作.xlsx
+++ b/九宫格游戏界面设计及操作.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shuxianghui\code\game\sudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4124B5E-701B-4E5B-9D80-4E2D7E2F2E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B598FB-C2BA-4A71-8228-3FBF5E76C6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>清除</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -76,6 +76,50 @@
   </si>
   <si>
     <t>数据结构：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗牌算法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Row</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>备注：红色表示当前项，带边框表示随机选中项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查算法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -83,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +158,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -135,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -162,6 +213,21 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -399,10 +465,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -410,6 +475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -417,19 +483,43 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -485,6 +575,182 @@
         <a:xfrm>
           <a:off x="1752601" y="9144001"/>
           <a:ext cx="8509000" cy="4991099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>20928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34A193FD-9421-40A5-84DE-6FDF33FF2502}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15240000"/>
+          <a:ext cx="6851650" cy="4592928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>50802</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>6351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>311106</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>298450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36349D01-738E-499E-805A-34A6A4410876}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1365252" y="24771351"/>
+          <a:ext cx="4641804" cy="2578099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>361951</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>231830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{949B0A0A-0BA7-45C5-A8A0-F8BC482CF0D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1327150" y="27793951"/>
+          <a:ext cx="5607050" cy="2917879"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>298450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>147419</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{897BEAFB-03D0-4768-9A06-3F2F6B2F4DD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7181851" y="28111450"/>
+          <a:ext cx="3919318" cy="1638300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -759,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E2:X24"/>
+  <dimension ref="A2:X66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="V40" sqref="V40"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="R81" sqref="R81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1026,6 +1292,310 @@
         <v>12</v>
       </c>
     </row>
+    <row r="54" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C55" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="28">
+        <v>0</v>
+      </c>
+      <c r="E55" s="26">
+        <v>1</v>
+      </c>
+      <c r="F55" s="26">
+        <v>2</v>
+      </c>
+      <c r="G55" s="26">
+        <v>3</v>
+      </c>
+      <c r="H55" s="26">
+        <v>4</v>
+      </c>
+      <c r="I55" s="26">
+        <v>5</v>
+      </c>
+      <c r="J55" s="29">
+        <v>6</v>
+      </c>
+      <c r="K55" s="26">
+        <v>7</v>
+      </c>
+      <c r="L55" s="26">
+        <v>8</v>
+      </c>
+      <c r="O55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D56" s="26">
+        <v>6</v>
+      </c>
+      <c r="E56" s="28">
+        <v>1</v>
+      </c>
+      <c r="F56" s="26">
+        <v>2</v>
+      </c>
+      <c r="G56" s="26">
+        <v>3</v>
+      </c>
+      <c r="H56" s="26">
+        <v>4</v>
+      </c>
+      <c r="I56" s="29">
+        <v>5</v>
+      </c>
+      <c r="J56" s="26">
+        <v>0</v>
+      </c>
+      <c r="K56" s="26">
+        <v>7</v>
+      </c>
+      <c r="L56" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D57" s="26">
+        <v>6</v>
+      </c>
+      <c r="E57" s="26">
+        <v>5</v>
+      </c>
+      <c r="F57" s="32">
+        <v>2</v>
+      </c>
+      <c r="G57" s="26">
+        <v>3</v>
+      </c>
+      <c r="H57" s="26">
+        <v>4</v>
+      </c>
+      <c r="I57" s="26">
+        <v>1</v>
+      </c>
+      <c r="J57" s="26">
+        <v>0</v>
+      </c>
+      <c r="K57" s="26">
+        <v>7</v>
+      </c>
+      <c r="L57" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D58" s="26">
+        <v>6</v>
+      </c>
+      <c r="E58" s="26">
+        <v>5</v>
+      </c>
+      <c r="F58" s="31">
+        <v>2</v>
+      </c>
+      <c r="G58" s="28">
+        <v>3</v>
+      </c>
+      <c r="H58" s="26">
+        <v>4</v>
+      </c>
+      <c r="I58" s="26">
+        <v>1</v>
+      </c>
+      <c r="J58" s="26">
+        <v>0</v>
+      </c>
+      <c r="K58" s="29">
+        <v>7</v>
+      </c>
+      <c r="L58" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D59" s="26">
+        <v>6</v>
+      </c>
+      <c r="E59" s="26">
+        <v>5</v>
+      </c>
+      <c r="F59" s="31">
+        <v>2</v>
+      </c>
+      <c r="G59" s="31">
+        <v>7</v>
+      </c>
+      <c r="H59" s="28">
+        <v>4</v>
+      </c>
+      <c r="I59" s="26">
+        <v>1</v>
+      </c>
+      <c r="J59" s="26">
+        <v>0</v>
+      </c>
+      <c r="K59" s="31">
+        <v>3</v>
+      </c>
+      <c r="L59" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D60" s="26">
+        <v>6</v>
+      </c>
+      <c r="E60" s="26">
+        <v>5</v>
+      </c>
+      <c r="F60" s="31">
+        <v>2</v>
+      </c>
+      <c r="G60" s="31">
+        <v>7</v>
+      </c>
+      <c r="H60" s="31">
+        <v>8</v>
+      </c>
+      <c r="I60" s="28">
+        <v>1</v>
+      </c>
+      <c r="J60" s="29">
+        <v>0</v>
+      </c>
+      <c r="K60" s="31">
+        <v>3</v>
+      </c>
+      <c r="L60" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D61" s="26">
+        <v>6</v>
+      </c>
+      <c r="E61" s="26">
+        <v>5</v>
+      </c>
+      <c r="F61" s="31">
+        <v>2</v>
+      </c>
+      <c r="G61" s="31">
+        <v>7</v>
+      </c>
+      <c r="H61" s="31">
+        <v>8</v>
+      </c>
+      <c r="I61" s="26">
+        <v>0</v>
+      </c>
+      <c r="J61" s="30">
+        <v>1</v>
+      </c>
+      <c r="K61" s="33">
+        <v>3</v>
+      </c>
+      <c r="L61" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D62" s="26">
+        <v>6</v>
+      </c>
+      <c r="E62" s="26">
+        <v>5</v>
+      </c>
+      <c r="F62" s="31">
+        <v>2</v>
+      </c>
+      <c r="G62" s="31">
+        <v>7</v>
+      </c>
+      <c r="H62" s="31">
+        <v>8</v>
+      </c>
+      <c r="I62" s="26">
+        <v>0</v>
+      </c>
+      <c r="J62" s="31">
+        <v>3</v>
+      </c>
+      <c r="K62" s="30">
+        <v>1</v>
+      </c>
+      <c r="L62" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D63" s="26">
+        <v>6</v>
+      </c>
+      <c r="E63" s="26">
+        <v>5</v>
+      </c>
+      <c r="F63" s="31">
+        <v>2</v>
+      </c>
+      <c r="G63" s="31">
+        <v>7</v>
+      </c>
+      <c r="H63" s="31">
+        <v>8</v>
+      </c>
+      <c r="I63" s="26">
+        <v>0</v>
+      </c>
+      <c r="J63" s="31">
+        <v>3</v>
+      </c>
+      <c r="K63" s="31">
+        <v>4</v>
+      </c>
+      <c r="L63" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H3:P3"/>

--- a/九宫格游戏界面设计及操作.xlsx
+++ b/九宫格游戏界面设计及操作.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shuxianghui\code\game\sudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B598FB-C2BA-4A71-8228-3FBF5E76C6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873834DE-0960-4C02-9048-4D2EEC5BFD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>清除</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -120,6 +120,10 @@
   </si>
   <si>
     <t>检查算法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三章</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -759,6 +763,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>254251</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A0E92AF-9A7E-4E10-8435-D1DA9368FD97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="31623001"/>
+          <a:ext cx="8140951" cy="3625849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1025,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:X66"/>
+  <dimension ref="A2:X83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="R81" sqref="R81"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="U94" sqref="U94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1596,6 +1644,11 @@
         <v>25</v>
       </c>
     </row>
+    <row r="83" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H3:P3"/>

--- a/九宫格游戏界面设计及操作.xlsx
+++ b/九宫格游戏界面设计及操作.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shuxianghui\code\game\sudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B598FB-C2BA-4A71-8228-3FBF5E76C6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DB5783-D664-412B-BE09-AF7BDCA7245B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>清除</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -120,6 +120,10 @@
   </si>
   <si>
     <t>检查算法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三章</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -759,6 +763,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>254251</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A0E92AF-9A7E-4E10-8435-D1DA9368FD97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="31623001"/>
+          <a:ext cx="8140951" cy="3625849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1025,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:X66"/>
+  <dimension ref="A2:X83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="R81" sqref="R81"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="Q97" sqref="Q97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1596,6 +1644,11 @@
         <v>25</v>
       </c>
     </row>
+    <row r="83" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H3:P3"/>

--- a/九宫格游戏界面设计及操作.xlsx
+++ b/九宫格游戏界面设计及操作.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shuxianghui\code\game\sudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873834DE-0960-4C02-9048-4D2EEC5BFD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56989C87-7C46-4FDA-AEEC-491665281903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>清除</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -124,6 +124,10 @@
   </si>
   <si>
     <t>第三章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成独数解决方案</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -491,9 +495,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -523,6 +524,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -807,6 +811,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>426310</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DB12780-9315-4031-A4B5-A28943F72F53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314452" y="36195001"/>
+          <a:ext cx="6560408" cy="3060699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1073,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:X83"/>
+  <dimension ref="A2:X94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="U94" sqref="U94"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="N105" sqref="N105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1084,21 +1132,21 @@
     <row r="2" spans="5:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="5:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G3" s="18"/>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="5:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G4" s="21"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -1108,10 +1156,10 @@
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="22"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="5:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G5" s="21"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="J5" s="4"/>
@@ -1121,11 +1169,11 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="22"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="5:24" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E6" s="10"/>
-      <c r="G6" s="21"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="5"/>
       <c r="I6" s="1"/>
       <c r="J6" s="6"/>
@@ -1135,7 +1183,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="1"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="22"/>
+      <c r="Q6" s="21"/>
       <c r="V6" s="13">
         <v>1</v>
       </c>
@@ -1147,7 +1195,7 @@
       </c>
     </row>
     <row r="7" spans="5:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G7" s="21"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
       <c r="J7" s="9"/>
@@ -1157,7 +1205,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="8"/>
       <c r="P7" s="9"/>
-      <c r="Q7" s="22"/>
+      <c r="Q7" s="21"/>
       <c r="V7" s="13">
         <v>4</v>
       </c>
@@ -1169,7 +1217,7 @@
       </c>
     </row>
     <row r="8" spans="5:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="21"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
       <c r="J8" s="4"/>
@@ -1179,7 +1227,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="22"/>
+      <c r="Q8" s="21"/>
       <c r="V8" s="13">
         <v>7</v>
       </c>
@@ -1191,7 +1239,7 @@
       </c>
     </row>
     <row r="9" spans="5:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="21"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="5"/>
       <c r="I9" s="1"/>
       <c r="J9" s="6"/>
@@ -1201,7 +1249,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="1"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="22"/>
+      <c r="Q9" s="21"/>
       <c r="V9" s="11"/>
       <c r="W9" s="13" t="s">
         <v>0</v>
@@ -1209,7 +1257,7 @@
       <c r="X9" s="12"/>
     </row>
     <row r="10" spans="5:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G10" s="21"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
       <c r="J10" s="9"/>
@@ -1219,10 +1267,10 @@
       <c r="N10" s="7"/>
       <c r="O10" s="8"/>
       <c r="P10" s="9"/>
-      <c r="Q10" s="22"/>
+      <c r="Q10" s="21"/>
     </row>
     <row r="11" spans="5:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="21"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
       <c r="J11" s="4"/>
@@ -1232,13 +1280,13 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="22"/>
+      <c r="Q11" s="21"/>
       <c r="V11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="5:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="21"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="5"/>
       <c r="I12" s="1"/>
       <c r="J12" s="6"/>
@@ -1248,10 +1296,10 @@
       <c r="N12" s="5"/>
       <c r="O12" s="1"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="22"/>
+      <c r="Q12" s="21"/>
     </row>
     <row r="13" spans="5:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="21"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="7"/>
       <c r="I13" s="8"/>
       <c r="J13" s="9"/>
@@ -1261,10 +1309,10 @@
       <c r="N13" s="7"/>
       <c r="O13" s="8"/>
       <c r="P13" s="9"/>
-      <c r="Q13" s="22"/>
+      <c r="Q13" s="21"/>
     </row>
     <row r="14" spans="5:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="21"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -1274,10 +1322,10 @@
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
-      <c r="Q14" s="22"/>
+      <c r="Q14" s="21"/>
     </row>
     <row r="15" spans="5:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G15" s="21"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="15"/>
       <c r="I15" s="17" t="s">
         <v>7</v>
@@ -1295,20 +1343,20 @@
         <v>10</v>
       </c>
       <c r="P15" s="16"/>
-      <c r="Q15" s="22"/>
+      <c r="Q15" s="21"/>
     </row>
     <row r="16" spans="5:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="25"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="24"/>
     </row>
     <row r="17" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H17" t="s">
@@ -1344,63 +1392,63 @@
       <c r="A54" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="27" t="s">
+      <c r="E54" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F54" s="27" t="s">
+      <c r="F54" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="27" t="s">
+      <c r="G54" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H54" s="27" t="s">
+      <c r="H54" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I54" s="27" t="s">
+      <c r="I54" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="27" t="s">
+      <c r="J54" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="K54" s="27" t="s">
+      <c r="K54" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="L54" s="27" t="s">
+      <c r="L54" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="28">
+      <c r="D55" s="27">
         <v>0</v>
       </c>
-      <c r="E55" s="26">
+      <c r="E55" s="25">
         <v>1</v>
       </c>
-      <c r="F55" s="26">
+      <c r="F55" s="25">
         <v>2</v>
       </c>
-      <c r="G55" s="26">
+      <c r="G55" s="25">
         <v>3</v>
       </c>
-      <c r="H55" s="26">
+      <c r="H55" s="25">
         <v>4</v>
       </c>
-      <c r="I55" s="26">
+      <c r="I55" s="25">
         <v>5</v>
       </c>
-      <c r="J55" s="29">
+      <c r="J55" s="28">
         <v>6</v>
       </c>
-      <c r="K55" s="26">
+      <c r="K55" s="25">
         <v>7</v>
       </c>
-      <c r="L55" s="26">
+      <c r="L55" s="25">
         <v>8</v>
       </c>
       <c r="O55" t="s">
@@ -1408,234 +1456,234 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D56" s="26">
+      <c r="D56" s="25">
         <v>6</v>
       </c>
-      <c r="E56" s="28">
+      <c r="E56" s="27">
         <v>1</v>
       </c>
-      <c r="F56" s="26">
+      <c r="F56" s="25">
         <v>2</v>
       </c>
-      <c r="G56" s="26">
+      <c r="G56" s="25">
         <v>3</v>
       </c>
-      <c r="H56" s="26">
+      <c r="H56" s="25">
         <v>4</v>
       </c>
-      <c r="I56" s="29">
+      <c r="I56" s="28">
         <v>5</v>
       </c>
-      <c r="J56" s="26">
+      <c r="J56" s="25">
         <v>0</v>
       </c>
-      <c r="K56" s="26">
+      <c r="K56" s="25">
         <v>7</v>
       </c>
-      <c r="L56" s="26">
+      <c r="L56" s="25">
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D57" s="26">
+      <c r="D57" s="25">
         <v>6</v>
       </c>
-      <c r="E57" s="26">
+      <c r="E57" s="25">
         <v>5</v>
       </c>
-      <c r="F57" s="32">
+      <c r="F57" s="31">
         <v>2</v>
       </c>
-      <c r="G57" s="26">
+      <c r="G57" s="25">
         <v>3</v>
       </c>
-      <c r="H57" s="26">
+      <c r="H57" s="25">
         <v>4</v>
       </c>
-      <c r="I57" s="26">
+      <c r="I57" s="25">
         <v>1</v>
       </c>
-      <c r="J57" s="26">
+      <c r="J57" s="25">
         <v>0</v>
       </c>
-      <c r="K57" s="26">
+      <c r="K57" s="25">
         <v>7</v>
       </c>
-      <c r="L57" s="26">
+      <c r="L57" s="25">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D58" s="26">
+      <c r="D58" s="25">
         <v>6</v>
       </c>
-      <c r="E58" s="26">
+      <c r="E58" s="25">
         <v>5</v>
       </c>
-      <c r="F58" s="31">
+      <c r="F58" s="30">
         <v>2</v>
       </c>
-      <c r="G58" s="28">
+      <c r="G58" s="27">
         <v>3</v>
       </c>
-      <c r="H58" s="26">
+      <c r="H58" s="25">
         <v>4</v>
       </c>
-      <c r="I58" s="26">
+      <c r="I58" s="25">
         <v>1</v>
       </c>
-      <c r="J58" s="26">
+      <c r="J58" s="25">
         <v>0</v>
       </c>
-      <c r="K58" s="29">
+      <c r="K58" s="28">
         <v>7</v>
       </c>
-      <c r="L58" s="26">
+      <c r="L58" s="25">
         <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D59" s="26">
+      <c r="D59" s="25">
         <v>6</v>
       </c>
-      <c r="E59" s="26">
+      <c r="E59" s="25">
         <v>5</v>
       </c>
-      <c r="F59" s="31">
+      <c r="F59" s="30">
         <v>2</v>
       </c>
-      <c r="G59" s="31">
+      <c r="G59" s="30">
         <v>7</v>
       </c>
-      <c r="H59" s="28">
+      <c r="H59" s="27">
         <v>4</v>
       </c>
-      <c r="I59" s="26">
+      <c r="I59" s="25">
         <v>1</v>
       </c>
-      <c r="J59" s="26">
+      <c r="J59" s="25">
         <v>0</v>
       </c>
-      <c r="K59" s="31">
+      <c r="K59" s="30">
         <v>3</v>
       </c>
-      <c r="L59" s="33">
+      <c r="L59" s="32">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D60" s="26">
+      <c r="D60" s="25">
         <v>6</v>
       </c>
-      <c r="E60" s="26">
+      <c r="E60" s="25">
         <v>5</v>
       </c>
-      <c r="F60" s="31">
+      <c r="F60" s="30">
         <v>2</v>
       </c>
-      <c r="G60" s="31">
+      <c r="G60" s="30">
         <v>7</v>
       </c>
-      <c r="H60" s="31">
+      <c r="H60" s="30">
         <v>8</v>
       </c>
-      <c r="I60" s="28">
+      <c r="I60" s="27">
         <v>1</v>
       </c>
-      <c r="J60" s="29">
+      <c r="J60" s="28">
         <v>0</v>
       </c>
-      <c r="K60" s="31">
+      <c r="K60" s="30">
         <v>3</v>
       </c>
-      <c r="L60" s="31">
+      <c r="L60" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D61" s="26">
+      <c r="D61" s="25">
         <v>6</v>
       </c>
-      <c r="E61" s="26">
+      <c r="E61" s="25">
         <v>5</v>
       </c>
-      <c r="F61" s="31">
+      <c r="F61" s="30">
         <v>2</v>
       </c>
-      <c r="G61" s="31">
+      <c r="G61" s="30">
         <v>7</v>
       </c>
-      <c r="H61" s="31">
+      <c r="H61" s="30">
         <v>8</v>
       </c>
-      <c r="I61" s="26">
+      <c r="I61" s="25">
         <v>0</v>
       </c>
-      <c r="J61" s="30">
+      <c r="J61" s="29">
         <v>1</v>
       </c>
-      <c r="K61" s="33">
+      <c r="K61" s="32">
         <v>3</v>
       </c>
-      <c r="L61" s="31">
+      <c r="L61" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D62" s="26">
+      <c r="D62" s="25">
         <v>6</v>
       </c>
-      <c r="E62" s="26">
+      <c r="E62" s="25">
         <v>5</v>
       </c>
-      <c r="F62" s="31">
+      <c r="F62" s="30">
         <v>2</v>
       </c>
-      <c r="G62" s="31">
+      <c r="G62" s="30">
         <v>7</v>
       </c>
-      <c r="H62" s="31">
+      <c r="H62" s="30">
         <v>8</v>
       </c>
-      <c r="I62" s="26">
+      <c r="I62" s="25">
         <v>0</v>
       </c>
-      <c r="J62" s="31">
+      <c r="J62" s="30">
         <v>3</v>
       </c>
-      <c r="K62" s="30">
+      <c r="K62" s="29">
         <v>1</v>
       </c>
-      <c r="L62" s="33">
+      <c r="L62" s="32">
         <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="26">
+      <c r="D63" s="25">
         <v>6</v>
       </c>
-      <c r="E63" s="26">
+      <c r="E63" s="25">
         <v>5</v>
       </c>
-      <c r="F63" s="31">
+      <c r="F63" s="30">
         <v>2</v>
       </c>
-      <c r="G63" s="31">
+      <c r="G63" s="30">
         <v>7</v>
       </c>
-      <c r="H63" s="31">
+      <c r="H63" s="30">
         <v>8</v>
       </c>
-      <c r="I63" s="26">
+      <c r="I63" s="25">
         <v>0</v>
       </c>
-      <c r="J63" s="31">
+      <c r="J63" s="30">
         <v>3</v>
       </c>
-      <c r="K63" s="31">
+      <c r="K63" s="30">
         <v>4</v>
       </c>
-      <c r="L63" s="30">
+      <c r="L63" s="29">
         <v>1</v>
       </c>
     </row>
@@ -1647,6 +1695,11 @@
     <row r="83" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/九宫格游戏界面设计及操作.xlsx
+++ b/九宫格游戏界面设计及操作.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shuxianghui\code\game\sudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56989C87-7C46-4FDA-AEEC-491665281903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6452D5C4-4662-4A8F-99E1-B6AE4A61099C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>清除</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -128,6 +128,14 @@
   </si>
   <si>
     <t>生成独数解决方案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成数独解决方案 - 简单方案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查生成标记</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -855,6 +863,138 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>274145</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7480CDF-C816-4313-8320-9DAE88E36111}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="40386001"/>
+          <a:ext cx="6408245" cy="3448049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>58465</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00B6913C-361E-4CD3-A481-5487D3E47586}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="45339000"/>
+          <a:ext cx="6192565" cy="3225800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>360065</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A181E4F5-E1A3-4337-BF54-CD6344C91A4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="49149000"/>
+          <a:ext cx="6056015" cy="3181350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1121,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:X94"/>
+  <dimension ref="A2:X118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="N105" sqref="N105"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="T133" sqref="T133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1702,6 +1842,16 @@
         <v>27</v>
       </c>
     </row>
+    <row r="105" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H3:P3"/>
